--- a/medicine/Enfance/Albert_Bulka/Albert_Bulka.xlsx
+++ b/medicine/Enfance/Albert_Bulka/Albert_Bulka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Bulka (né le 28 juin 1939, à Ougrée, Province de Liège, en Belgique et mort le 16 avril 1944 à Auschwitz) est le plus jeune des 44 enfants d'Izieu arrêtés lors de la Rafle du 6 avril 1944. Il est alors âgé de 4 ans. 
 Il est déporté par le convoi no 71, en date du 13 avril 1944, du camp de Drancy vers Auschwitz, où il est assassiné à son arrivée.
@@ -512,16 +524,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Bulka est né le 28 juin 1939 à Ougrée (province de Liège en Belgique). Ses parents sont nés en Pologne : Son père, Moszek, né le 4 juin 1901 à Bolesławiec et sa mère, Roisel (née Moszkowicz) née le 18 août 1903 à Warta[1].
-Ils habitent au 24 rue des Champs à Liège[2],[3].
-Albert a un frère aîné, Marcel Majer Bulka[4] (ou Marcel Bulka), né le 29 septembre 1930, à Kalisz, Pologne.
-Albert et Marcel[5],[6] et leurs parents sont internés au camp de Rivesaltes. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Bulka est né le 28 juin 1939 à Ougrée (province de Liège en Belgique). Ses parents sont nés en Pologne : Son père, Moszek, né le 4 juin 1901 à Bolesławiec et sa mère, Roisel (née Moszkowicz) née le 18 août 1903 à Warta.
+Ils habitent au 24 rue des Champs à Liège,.
+Albert a un frère aîné, Marcel Majer Bulka (ou Marcel Bulka), né le 29 septembre 1930, à Kalisz, Pologne.
+Albert et Marcel, et leurs parents sont internés au camp de Rivesaltes. 
 Roisel Bulka est transférée de Rivesaltes à Drancy puis déportée par le convoi no 31, en date du 11 septembre 1942, vers Auschwitz.
-Moszek Bulka est transféré de Rivesaltes au camp de Gurs le 26 février 1943, puis au camp de Drancy, le 2 mars 1943. Il est déporté deux jours plus tard, le 4 mars 1943 par le convoi no 50 vers le camp de Majdanek et Sobibor. Sa dernière adresse est l'endroit où il est interné : le fort de Chapoly (Rhône)[1].
-Albert et Marcel quittent le camp de Rivesaltes pour le foyer pour enfants de Palavas-les-Flots dans l’Hérault[7], puis arrivent à la Maison d'Izieu le 18 mai 1943[8].
-Albert, âgé de 4 ans, est le plus jeune des Enfants d'Izieu. Il est arrêté avec son frère Marcel, âgé de 13 ans, et les autres enfants d'Izieu[9], dans la Rafle du 6 avril 1944. Les deux frères sont déportés par le convoi no 71 le 13 avril 1944, du camp de Drancy vers Auschwitz, où ils sont assassinés[10],[11].
+Moszek Bulka est transféré de Rivesaltes au camp de Gurs le 26 février 1943, puis au camp de Drancy, le 2 mars 1943. Il est déporté deux jours plus tard, le 4 mars 1943 par le convoi no 50 vers le camp de Majdanek et Sobibor. Sa dernière adresse est l'endroit où il est interné : le fort de Chapoly (Rhône).
+Albert et Marcel quittent le camp de Rivesaltes pour le foyer pour enfants de Palavas-les-Flots dans l’Hérault, puis arrivent à la Maison d'Izieu le 18 mai 1943.
+Albert, âgé de 4 ans, est le plus jeune des Enfants d'Izieu. Il est arrêté avec son frère Marcel, âgé de 13 ans, et les autres enfants d'Izieu, dans la Rafle du 6 avril 1944. Les deux frères sont déportés par le convoi no 71 le 13 avril 1944, du camp de Drancy vers Auschwitz, où ils sont assassinés,.
 </t>
         </is>
       </c>
